--- a/Finflux Automation Excels/Client/4948-Disburse1stTranche-WaiveChargeFor-2ndTranche-Disb2ndtranche.xlsx
+++ b/Finflux Automation Excels/Client/4948-Disburse1stTranche-WaiveChargeFor-2ndTranche-Disb2ndtranche.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Charges" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>waivecharge</t>
   </si>
   <si>
-    <t>clickonwaivechargeconfirm</t>
-  </si>
-  <si>
     <t>confirm</t>
   </si>
   <si>
     <t>clickonwaivecharge1</t>
   </si>
   <si>
-    <t>clickonwaivecharge2</t>
-  </si>
-  <si>
     <t>clickondisburse</t>
   </si>
   <si>
@@ -144,6 +138,9 @@
   </si>
   <si>
     <t>Repayment (at time of disbursement)</t>
+  </si>
+  <si>
+    <t>clickonwaivechargeconfirm1</t>
   </si>
 </sst>
 </file>
@@ -518,9 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -530,7 +525,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -538,10 +533,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -553,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +560,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -573,10 +568,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -600,15 +595,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>42064</v>
@@ -616,7 +611,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>42086</v>
@@ -624,10 +619,10 @@
     </row>
     <row r="4" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -647,22 +642,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -763,49 +758,49 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1415,7 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -1426,34 +1421,34 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -1463,13 +1458,13 @@
         <v>166</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="7">
         <v>42064</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="4">
         <v>5000</v>
@@ -1497,13 +1492,13 @@
         <v>165</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7">
         <v>42005</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="5">
         <v>50</v>
@@ -1531,13 +1526,13 @@
         <v>164</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7">
         <v>42005</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5">
         <v>50</v>
@@ -1565,13 +1560,13 @@
         <v>163</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="7">
         <v>42005</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5">
         <v>100</v>
@@ -1599,13 +1594,13 @@
         <v>162</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="7">
         <v>42005</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4">
         <v>5000</v>
